--- a/sampleExcels/InvitedTalkFaculty.xlsx
+++ b/sampleExcels/InvitedTalkFaculty.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\xlsx-populate\lib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21240" windowHeight="12570"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,49 +24,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Title of Lecture/Academic Session</t>
+    <t xml:space="preserve">Title of Lecture/Academic Session</t>
   </si>
   <si>
-    <t>Title of Seminar, etc.</t>
+    <t xml:space="preserve">Title of Seminar, etc.</t>
   </si>
   <si>
-    <t>Organized by</t>
+    <t xml:space="preserve">Organized by</t>
   </si>
   <si>
-    <t>Type</t>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t>Nature</t>
+    <t xml:space="preserve">Nature</t>
   </si>
   <si>
-    <t>Year</t>
+    <t xml:space="preserve">Year</t>
   </si>
   <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>Resource Person</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>sssssss</t>
+    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts/>
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +60,136 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
   </fonts>
-  <fills count="2">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
-  <borders count="1">
+  <borders>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -90,10 +201,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="5" borderId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1" vertical="middle" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -129,7 +273,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -141,7 +285,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -155,12 +299,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,31 +332,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -240,23 +367,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,76 +519,2871 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1" style="7"/>
+    <col min="2" max="2" width="20" customWidth="1" style="8"/>
+    <col min="3" max="3" width="20" customWidth="1" style="9"/>
+    <col min="4" max="4" width="20" customWidth="1" style="10"/>
+    <col min="5" max="5" width="20" customWidth="1" style="11"/>
+    <col min="6" max="6" width="20" customWidth="1" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F74" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F85" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F88" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F90" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F94" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F100" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F101" t="s" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s" s="12">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"State/University,National,International (within country),International (Abroad)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>"1994-95,1995-96,1996-97,1997-98,1998-99,1999-20,2000-01,2001-02,2002-03,2003-04,2004-05,2005-06,2006-07,2007-08,2008-09,2009-10,2010-11,2011-12,2012-13,2013-14,2014-15,2015-16,2016-17,2017-18,2018-19,2019-20,2020-21,2021-22,2022-23,"</formula1>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E2">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F2">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E3">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F3">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E4">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F4">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E5">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F5">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E6">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F6">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E7">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F7">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E8">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F8">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E9">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F9">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E10">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F10">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E11">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F11">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E12">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F12">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E13">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F13">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E14">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F14">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E15">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F15">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E16">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F16">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E17">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F17">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E18">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F18">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E19">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F19">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E20">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F20">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E21">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F21">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E22">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F22">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E23">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F23">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E24">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F24">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E25">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F25">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E26">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F26">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E27">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F27">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E28">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F28">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E29">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F29">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E30">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F30">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E31">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F31">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E32">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F32">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E33">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F33">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E34">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F34">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E35">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F35">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E36">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F36">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E37">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F37">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E38">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F38">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E39">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F39">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E40">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F40">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E41">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F41">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E42">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F42">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E43">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F43">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E44">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F44">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E45">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F45">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E46">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F46">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E47">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F47">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E48">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F48">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E49">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F49">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E50">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F50">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E51">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F51">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E52">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F52">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E53">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F53">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E54">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F54">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E55">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F55">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E56">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F56">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E57">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F57">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E58">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F58">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E59">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F59">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E60">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F60">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E61">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F61">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E62">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F62">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E63">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F63">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E64">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F64">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E65">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F65">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E66">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F66">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E67">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F67">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E68">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F68">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E69">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F69">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E70">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F70">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E71">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F71">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E72">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F72">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E73">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F73">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E74">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F74">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E75">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F75">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E76">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F76">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E77">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F77">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E78">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F78">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E79">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F79">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E80">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F80">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E81">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F81">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E82">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F82">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E83">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F83">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E84">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F84">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E85">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F85">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E86">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F86">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E87">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F87">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E88">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F88">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E89">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F89">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E90">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F90">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E91">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F91">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E92">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F92">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E93">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F93">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E94">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F94">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E95">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F95">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E96">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F96">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E97">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F97">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E98">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F98">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E99">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F99">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E100">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F100">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E101">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F101">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid value" operator="undefined" sqref="E102">
+      <formula1>"Invited Talk,Resource Person,Paper Presentation"</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="undefined" showInputMessage="undefined" prompt="undefined" promptTitle="undefined" showErrorMessage="true" error="Please select a value from the list" errorTitle="Invalid Academic Year" operator="undefined" sqref="F102">
+      <formula1>"2023-24,2022-23,2021-22,2020-21,2019-20,2018-19,2017-18,2016-17,2015-16,2014-15,2013-14,2012-13,2011-12,2010-11,2009-10,2008-09,2007-08,2006-07,2005-06,2004-05,2003-04,2002-03,2001-02,2000-01,1999-00,1998-99,1997-98,1996-97,1995-96,1994-95"</formula1>
+      <formula2/>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>